--- a/biology/Zoologie/Cercopithecus/Cercopithecus.xlsx
+++ b/biology/Zoologie/Cercopithecus/Cercopithecus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercopithecus est un genre de primates africains de la famille des cercopithécidés. Il comprend la plupart des singes appelés cercopithèques en français.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cercopithèques possèdent différentes couleurs vives au niveau de la tête, ce qui facilite la distinction entre différentes espèces de cercopithèques partageant un même territoire.
 Ils vivent en bandes rassemblant jusqu'à 50 individus. Chaque bande compte plusieurs familles dirigées par un dominant.
@@ -549,14 +563,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Évolution de la classification
-Le genre Cercopithecus a été créé par Carl von Linné en 1758 comme une sous-division du genre Simia et regroupait alors tous les singes « à longue queue ». L'étymologie du nom renvoie aux Cercopes, deux brigands de la mythologie grecque dont le poète latin Ovide relate la métamorphose en singes.
-La taxinomie de ces primates a ensuite connu de nombreux remaniements. Depuis 1970, le cercopithèque noir et vert et le patas sont classés à part, dans les genres monotypiques Allenopithecus et Erythrocebus[1].
-Les talapoins ont pu être considérés un temps comme un sous-genre, mais la plupart des auteurs s'accordent désormais à en faire un genre séparé, Miopithecus. Ainsi en est-il également des singes verts, qui forment dans la majorité des classifications le genre Chlorocebus[1].
-Certaines études phylogénétiques ont montré que le genre Cercopithecus, dans son acception actuelle, est paraphylétique, et recommandent de reclasser les trois espèces terrestres du groupe de C. lhoesti dans un genre séparé, Allochrocebus. Le reste du genre ne comprendraient alors plus que des espèces arboricoles[2].
-Liste des espèces
-Note : Les classifications évoluant encore, les noms scientifiques ont peut-être un autre synonyme valide et certaines espèces ont des noms français qui peuvent désigner également des espèces différentes.
-Selon ITIS      (13 octobre 2017)[3] :
+          <t>Évolution de la classification</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cercopithecus a été créé par Carl von Linné en 1758 comme une sous-division du genre Simia et regroupait alors tous les singes « à longue queue ». L'étymologie du nom renvoie aux Cercopes, deux brigands de la mythologie grecque dont le poète latin Ovide relate la métamorphose en singes.
+La taxinomie de ces primates a ensuite connu de nombreux remaniements. Depuis 1970, le cercopithèque noir et vert et le patas sont classés à part, dans les genres monotypiques Allenopithecus et Erythrocebus.
+Les talapoins ont pu être considérés un temps comme un sous-genre, mais la plupart des auteurs s'accordent désormais à en faire un genre séparé, Miopithecus. Ainsi en est-il également des singes verts, qui forment dans la majorité des classifications le genre Chlorocebus.
+Certaines études phylogénétiques ont montré que le genre Cercopithecus, dans son acception actuelle, est paraphylétique, et recommandent de reclasser les trois espèces terrestres du groupe de C. lhoesti dans un genre séparé, Allochrocebus. Le reste du genre ne comprendraient alors plus que des espèces arboricoles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cercopithecus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercopithecus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : Les classifications évoluant encore, les noms scientifiques ont peut-être un autre synonyme valide et certaines espèces ont des noms français qui peuvent désigner également des espèces différentes.
+Selon ITIS      (13 octobre 2017) :
 Cercopithecus ascanius (Audebert, 1799)
 Cercopithecus campbelli Waterhouse, 1838
 Cercopithecus cephus (Linnaeus, 1758)
@@ -579,68 +633,70 @@
 Cercopithecus wolfi Meyer, 1891
 Selon la troisième édition de Mammal Species of the World de 2005 :
 Groupe de Cercopithecus dryas :
-Cercopithecus dryas Schwartz, 1932 — Cercopithèque dryade[4]
+Cercopithecus dryas Schwartz, 1932 — Cercopithèque dryade
 Groupe de Cercopithecus diana :
-Cercopithecus diana (Linnaeus, 1758) — Cercopithèque diane[5],[6], Diane[4], ou Capitaine[4]
-Cercopithecus roloway (Schreber, 1774) - Cercopithèque de Roloway[7], Diane roloway[4] ou Palatine[4]
+Cercopithecus diana (Linnaeus, 1758) — Cercopithèque diane Diane, ou Capitaine
+Cercopithecus roloway (Schreber, 1774) - Cercopithèque de Roloway, Diane roloway ou Palatine
 Groupe de Cercopithecus mitis :
-Cercopithecus nictitans (Linnaeus, 1766) — Hocheur[8], Cercopithèque hocheur[7], Pain à cacheter[7]  ou  Hocheur blanc-nez [7]
-Cercopithecus mitis Wolf, 1822 — Singe bleu[5], Singe argenté[7] ou Cercopithèque à diadème [7]
-Cercopithecus albogularis Sykes, 1831 - Cercopithèque à diadème [5] ou Sitka[7]
-Cercopithecus kandti Matschie, 1905 - Singe doré[7]
+Cercopithecus nictitans (Linnaeus, 1766) — Hocheur, Cercopithèque hocheur, Pain à cacheter  ou  Hocheur blanc-nez 
+Cercopithecus mitis Wolf, 1822 — Singe bleu, Singe argenté ou Cercopithèque à diadème 
+Cercopithecus albogularis Sykes, 1831 - Cercopithèque à diadème  ou Sitka
+Cercopithecus kandti Matschie, 1905 - Singe doré
 Cercopithecus doggetti Pocock, 1907
 Groupe de Cercopithecus mona :
-Cercopithecus mona (Schreber, 1774) — Cercopithèque mona[5], mone [8],[7] ou Cercopithèque mone[7]
-Cercopithecus pogonias Bennett, 1833 — Cercopithèque pogonias[5],[7] et Mone de Gray (Cercopithecus pogonias grayi)[7]
-Cercopithecus campbelli Waterhouse, 1838 — Singe des palétuviers[5], Cercopithèque de Campbell[7] ou Mone de Campbell
-Cercopithecus wolfi A. Meyer, 1891 — Cercopithèque de Wolf[5],[7]
-Cercopithecus denti Thomas, 1907 - Singe mona de Dent[5] ou Cercopithèque de Dent[7]
-Cercopithecus lowei Thomas, 1923 - Cercopithèque de Lowe[7]
+Cercopithecus mona (Schreber, 1774) — Cercopithèque mona, mone , ou Cercopithèque mone
+Cercopithecus pogonias Bennett, 1833 — Cercopithèque pogonias, et Mone de Gray (Cercopithecus pogonias grayi)
+Cercopithecus campbelli Waterhouse, 1838 — Singe des palétuviers, Cercopithèque de Campbell ou Mone de Campbell
+Cercopithecus wolfi A. Meyer, 1891 — Cercopithèque de Wolf,
+Cercopithecus denti Thomas, 1907 - Singe mona de Dent ou Cercopithèque de Dent
+Cercopithecus lowei Thomas, 1923 - Cercopithèque de Lowe
 Groupe de Cercopithecus cephus :
-Cercopithecus cephus (Linnaeus, 1758) — Moustac[5],[8],[7], Moustac de Buffon[7] ou Cercopithèque moustac[8]
-Cercopithecus petaurista (Schreber, 1774) — Hocheur blanc-nez [7] ou Hocheur blanc-nez du Bénin[7]
-Cercopithecus ascanius (Audebert, 1799) — Cercopithèque ascagne[5],[7]
-Cercopithecus erythrotis Waterhouse, 1838 — Moustac à oreilles rousses[5],[7], Moustac à oreilles rouges[7] ou Hocheur à nez rouge[7]
-Cercopithecus erythrogaster Gray, 1866 – Hocheur à ventre roux[9],[7], Hocheur à ventre rouge[7] ou Singe à ventre rouge[7]
-Cercopithecus sclateri Pocock, 1904 - Cercopithèque de Sclater[7]
+Cercopithecus cephus (Linnaeus, 1758) — Moustac Moustac de Buffon ou Cercopithèque moustac
+Cercopithecus petaurista (Schreber, 1774) — Hocheur blanc-nez  ou Hocheur blanc-nez du Bénin
+Cercopithecus ascanius (Audebert, 1799) — Cercopithèque ascagne,
+Cercopithecus erythrotis Waterhouse, 1838 — Moustac à oreilles rousses Moustac à oreilles rouges ou Hocheur à nez rouge
+Cercopithecus erythrogaster Gray, 1866 – Hocheur à ventre roux Hocheur à ventre rouge ou Singe à ventre rouge
+Cercopithecus sclateri Pocock, 1904 - Cercopithèque de Sclater
 Groupe de Cercopithecus lhoesti[a] :
-Cercopithecus preussi Matschie, 1898. — Cercopithèque de Preuss[5],[7]
-Cercopithecus lhoesti P. Sclater, 1899 — Cercopithèque de l'Hœst[5],[7]
-Cercopithecus solatus M. J. S. Harrison, 1988 — Cercopithèque à queue de soleil[5],[8],[7]  ou Cercopithèque à queue dorée[7] ou Cercopithèque du Gabon[7]
+Cercopithecus preussi Matschie, 1898. — Cercopithèque de Preuss,
+Cercopithecus lhoesti P. Sclater, 1899 — Cercopithèque de l'Hœst,
+Cercopithecus solatus M. J. S. Harrison, 1988 — Cercopithèque à queue de soleil  ou Cercopithèque à queue dorée ou Cercopithèque du Gabon
 Groupe de Cercopithecus hamlyni :
-Cercopithecus hamlyni Pocock, 1907 — Cercopithèque de Hamlyn[5] ou Cercopithèque à tête de hibou[7]
+Cercopithecus hamlyni Pocock, 1907 — Cercopithèque de Hamlyn ou Cercopithèque à tête de hibou
 Groupe de Cercopithecus neglectus :
-Cercopithecus neglectus Schlegel, 1876 — Cercopithèque de Brazza[5],[7] ou Singe de Brazza[7]
-En 2012, une espèce supplémentaire a été décrite : Cercopithecus lomamiensis Hart et al., 2012 — Lesula[10]
+Cercopithecus neglectus Schlegel, 1876 — Cercopithèque de Brazza, ou Singe de Brazza
+En 2012, une espèce supplémentaire a été décrite : Cercopithecus lomamiensis Hart et al., 2012 — Lesula
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Cercopithecus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cercopithecus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
